--- a/112-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW 6/assignment6_grade.xlsx
+++ b/112-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW 6/assignment6_grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonsici/檔案/課業/Matlab (TA)/Homeworks/HW_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CAFD8F-2D87-2240-8B2E-784052E50DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822DD974-4C74-E549-B288-8EF621A62A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>Q10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Median</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +299,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,6 +391,22 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -402,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -434,12 +454,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +559,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,11 +849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2212,50 +2253,50 @@
       <c r="A23" s="16"/>
       <c r="B23" s="15"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="35">
         <f>AVERAGE(E2:E22)</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="35">
         <f t="shared" ref="F23:N23" si="1">AVERAGE(F2:F22)</f>
         <v>9.2857142857142865</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="35">
         <f>AVERAGE(G2:G22)</f>
         <v>8.7142857142857135</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="35">
         <f t="shared" si="1"/>
         <v>8.7619047619047628</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="35">
         <f t="shared" si="1"/>
         <v>7.9523809523809526</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="35">
         <f t="shared" si="1"/>
         <v>9.4761904761904763</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="35">
         <f t="shared" si="1"/>
         <v>8.5238095238095237</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="35">
         <f t="shared" si="1"/>
         <v>9.3809523809523814</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="35">
         <f t="shared" si="1"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="35">
         <f t="shared" si="1"/>
         <v>8.9523809523809526</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="35">
         <f>AVERAGE(O2:O22)</f>
         <v>90.047619047619051</v>
       </c>
@@ -2277,7 +2318,53 @@
     </row>
     <row r="24" spans="1:30" ht="16" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="O24" s="7"/>
+      <c r="D24" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="34">
+        <f t="shared" ref="E24:N24" si="2">MEDIAN(E2:E22)</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="34">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H24" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I24" s="34">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J24" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L24" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M24" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N24" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O24" s="34">
+        <f>MEDIAN(O2:O22)</f>
+        <v>93</v>
+      </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -2370,11 +2457,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02862406-4527-8641-B7FA-76838E26130D}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25:N45"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
